--- a/build/BenchmarkResults/SpecificWidth/output.xlsx
+++ b/build/BenchmarkResults/SpecificWidth/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I259"/>
+  <dimension ref="A1:I297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>800.7</v>
+        <v>128.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1379.91</v>
+        <v>30.99</v>
       </c>
     </row>
     <row r="7">
@@ -676,18 +676,18 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>318.4</v>
+        <v>746.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1799.32</v>
+        <v>922.3099999999999</v>
       </c>
     </row>
     <row r="8">
@@ -711,18 +711,18 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>306.3</v>
+        <v>65.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1799.85</v>
+        <v>22.19</v>
       </c>
     </row>
     <row r="9">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -754,10 +754,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>207.9</v>
+        <v>1130.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1799.91</v>
+        <v>1799.59</v>
       </c>
     </row>
     <row r="10">
@@ -781,18 +781,18 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>124.8</v>
+        <v>483.4</v>
       </c>
       <c r="I10" t="n">
-        <v>987.53</v>
+        <v>462.35</v>
       </c>
     </row>
     <row r="11">
@@ -816,18 +816,18 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>38.1</v>
+        <v>800.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.89</v>
+        <v>1379.91</v>
       </c>
     </row>
     <row r="12">
@@ -851,18 +851,18 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>27.7</v>
+        <v>318.4</v>
       </c>
       <c r="I12" t="n">
-        <v>0.19</v>
+        <v>1799.32</v>
       </c>
     </row>
     <row r="13">
@@ -886,24 +886,24 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>306.3</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1799.85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>M-bcsstk06</t>
+          <t>K-dwt__234</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -921,24 +921,24 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1299.2</v>
+        <v>207.9</v>
       </c>
       <c r="I14" t="n">
-        <v>527.58</v>
+        <v>1799.91</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>M-bcsstk06</t>
+          <t>K-dwt__234</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -956,24 +956,24 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2038.1</v>
+        <v>124.8</v>
       </c>
       <c r="I15" t="n">
-        <v>1799.16</v>
+        <v>987.53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>M-bcsstk06</t>
+          <t>K-dwt__234</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -991,24 +991,24 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1492.2</v>
+        <v>38.1</v>
       </c>
       <c r="I16" t="n">
-        <v>1799.75</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>M-bcsstk06</t>
+          <t>K-dwt__234</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1026,24 +1026,24 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1452.2</v>
+        <v>27.7</v>
       </c>
       <c r="I17" t="n">
-        <v>1799.82</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>M-bcsstk06</t>
+          <t>K-dwt__234</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1061,18 +1061,18 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2039.1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1799.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1096,18 +1096,18 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1178.6</v>
+        <v>1146.9</v>
       </c>
       <c r="I19" t="n">
-        <v>157.06</v>
+        <v>15.39</v>
       </c>
     </row>
     <row r="20">
@@ -1131,18 +1131,18 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1191</v>
+        <v>1256.8</v>
       </c>
       <c r="I20" t="n">
-        <v>166.54</v>
+        <v>73.19</v>
       </c>
     </row>
     <row r="21">
@@ -1166,18 +1166,18 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1188.9</v>
+        <v>1188.5</v>
       </c>
       <c r="I21" t="n">
-        <v>197.73</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="22">
@@ -1201,18 +1201,18 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1157.4</v>
+        <v>1280.1</v>
       </c>
       <c r="I22" t="n">
-        <v>67.37</v>
+        <v>95.89</v>
       </c>
     </row>
     <row r="23">
@@ -1236,18 +1236,18 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1170.5</v>
+        <v>1258.5</v>
       </c>
       <c r="I23" t="n">
-        <v>66.06</v>
+        <v>88.67</v>
       </c>
     </row>
     <row r="24">
@@ -1271,18 +1271,18 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1162.3</v>
+        <v>1331.6</v>
       </c>
       <c r="I24" t="n">
-        <v>118.25</v>
+        <v>323.71</v>
       </c>
     </row>
     <row r="25">
@@ -1306,18 +1306,18 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1160.4</v>
+        <v>1299.2</v>
       </c>
       <c r="I25" t="n">
-        <v>87.66</v>
+        <v>527.58</v>
       </c>
     </row>
     <row r="26">
@@ -1341,24 +1341,24 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1175.1</v>
+        <v>2038.1</v>
       </c>
       <c r="I26" t="n">
-        <v>91.45999999999999</v>
+        <v>1799.16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>O-impcol_d</t>
+          <t>M-bcsstk06</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1376,24 +1376,24 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1153.9</v>
+        <v>1492.2</v>
       </c>
       <c r="I27" t="n">
-        <v>316.13</v>
+        <v>1799.75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>O-impcol_d</t>
+          <t>M-bcsstk06</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1411,24 +1411,24 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1962.7</v>
+        <v>1452.2</v>
       </c>
       <c r="I28" t="n">
-        <v>901.6799999999999</v>
+        <v>1799.82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>O-impcol_d</t>
+          <t>M-bcsstk06</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1446,24 +1446,24 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3191.7</v>
+        <v>2039.1</v>
       </c>
       <c r="I29" t="n">
-        <v>679.49</v>
+        <v>1799.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>O-impcol_d</t>
+          <t>M-bcsstk06</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1481,24 +1481,24 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1960.8</v>
+        <v>1178.6</v>
       </c>
       <c r="I30" t="n">
-        <v>581.3</v>
+        <v>157.06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>O-impcol_d</t>
+          <t>M-bcsstk06</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1516,24 +1516,24 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1639.9</v>
+        <v>1191</v>
       </c>
       <c r="I31" t="n">
-        <v>470.4</v>
+        <v>166.54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>O-impcol_d</t>
+          <t>M-bcsstk06</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1551,24 +1551,24 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2015.9</v>
+        <v>1188.9</v>
       </c>
       <c r="I32" t="n">
-        <v>1181.26</v>
+        <v>197.73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>O-impcol_d</t>
+          <t>M-bcsstk06</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1586,24 +1586,24 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2416.2</v>
+        <v>1157.4</v>
       </c>
       <c r="I33" t="n">
-        <v>1799.52</v>
+        <v>67.37</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>O-impcol_d</t>
+          <t>M-bcsstk06</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1621,24 +1621,24 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2954.6</v>
+        <v>1170.5</v>
       </c>
       <c r="I34" t="n">
-        <v>1425.07</v>
+        <v>66.06</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>O-impcol_d</t>
+          <t>M-bcsstk06</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1656,24 +1656,24 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2452.9</v>
+        <v>1162.3</v>
       </c>
       <c r="I35" t="n">
-        <v>1799.59</v>
+        <v>118.25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>O-impcol_d</t>
+          <t>M-bcsstk06</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1691,24 +1691,24 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3499.9</v>
+        <v>1160.4</v>
       </c>
       <c r="I36" t="n">
-        <v>1799.7</v>
+        <v>87.66</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>O-impcol_d</t>
+          <t>M-bcsstk06</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1726,18 +1726,18 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2996.8</v>
+        <v>1175.1</v>
       </c>
       <c r="I37" t="n">
-        <v>1799.79</v>
+        <v>91.45999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1761,18 +1761,18 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>2773.7</v>
+        <v>741.4</v>
       </c>
       <c r="I38" t="n">
-        <v>1799.72</v>
+        <v>83.78</v>
       </c>
     </row>
     <row r="39">
@@ -1796,18 +1796,18 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3266</v>
+        <v>1631.7</v>
       </c>
       <c r="I39" t="n">
-        <v>1799.8</v>
+        <v>230.62</v>
       </c>
     </row>
     <row r="40">
@@ -1831,18 +1831,18 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1437.4</v>
+        <v>765.1</v>
       </c>
       <c r="I40" t="n">
-        <v>1799.75</v>
+        <v>86.34999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -1866,18 +1866,18 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2797.6</v>
+        <v>665.2</v>
       </c>
       <c r="I41" t="n">
-        <v>1799.88</v>
+        <v>66.56</v>
       </c>
     </row>
     <row r="42">
@@ -1901,18 +1901,18 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1660.1</v>
+        <v>1292.8</v>
       </c>
       <c r="I42" t="n">
-        <v>1799.21</v>
+        <v>176.83</v>
       </c>
     </row>
     <row r="43">
@@ -1936,18 +1936,18 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2715.2</v>
+        <v>1101.5</v>
       </c>
       <c r="I43" t="n">
-        <v>1799.84</v>
+        <v>225.14</v>
       </c>
     </row>
     <row r="44">
@@ -1971,18 +1971,18 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1662</v>
+        <v>737.2</v>
       </c>
       <c r="I44" t="n">
-        <v>1799.75</v>
+        <v>159.83</v>
       </c>
     </row>
     <row r="45">
@@ -2006,18 +2006,18 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2255.9</v>
+        <v>898.3</v>
       </c>
       <c r="I45" t="n">
-        <v>1799.85</v>
+        <v>185.75</v>
       </c>
     </row>
     <row r="46">
@@ -2041,18 +2041,18 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1084.6</v>
+        <v>1530.5</v>
       </c>
       <c r="I46" t="n">
-        <v>1799.86</v>
+        <v>285.42</v>
       </c>
     </row>
     <row r="47">
@@ -2076,18 +2076,18 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1234.2</v>
+        <v>2765.5</v>
       </c>
       <c r="I47" t="n">
-        <v>1799.87</v>
+        <v>558.96</v>
       </c>
     </row>
     <row r="48">
@@ -2111,18 +2111,18 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1341</v>
+        <v>1153.9</v>
       </c>
       <c r="I48" t="n">
-        <v>1799.77</v>
+        <v>316.13</v>
       </c>
     </row>
     <row r="49">
@@ -2146,18 +2146,18 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>978.9</v>
+        <v>1962.7</v>
       </c>
       <c r="I49" t="n">
-        <v>1799.36</v>
+        <v>901.6799999999999</v>
       </c>
     </row>
     <row r="50">
@@ -2181,18 +2181,18 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1001</v>
+        <v>3191.7</v>
       </c>
       <c r="I50" t="n">
-        <v>1799.9</v>
+        <v>679.49</v>
       </c>
     </row>
     <row r="51">
@@ -2216,18 +2216,18 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1435.7</v>
+        <v>1960.8</v>
       </c>
       <c r="I51" t="n">
-        <v>1799.86</v>
+        <v>581.3</v>
       </c>
     </row>
     <row r="52">
@@ -2251,18 +2251,18 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>994.7</v>
+        <v>1639.9</v>
       </c>
       <c r="I52" t="n">
-        <v>1799.76</v>
+        <v>470.4</v>
       </c>
     </row>
     <row r="53">
@@ -2286,18 +2286,18 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>951.3</v>
+        <v>2015.9</v>
       </c>
       <c r="I53" t="n">
-        <v>1799.86</v>
+        <v>1181.26</v>
       </c>
     </row>
     <row r="54">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>984.3</v>
+        <v>2416.2</v>
       </c>
       <c r="I54" t="n">
-        <v>1799.84</v>
+        <v>1799.52</v>
       </c>
     </row>
     <row r="55">
@@ -2356,18 +2356,18 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1002.2</v>
+        <v>2954.6</v>
       </c>
       <c r="I55" t="n">
-        <v>1799.88</v>
+        <v>1425.07</v>
       </c>
     </row>
     <row r="56">
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2399,10 +2399,10 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>942.1</v>
+        <v>2452.9</v>
       </c>
       <c r="I56" t="n">
-        <v>1799.78</v>
+        <v>1799.59</v>
       </c>
     </row>
     <row r="57">
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>868.6</v>
+        <v>3499.9</v>
       </c>
       <c r="I57" t="n">
-        <v>1799.87</v>
+        <v>1799.7</v>
       </c>
     </row>
     <row r="58">
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2469,10 +2469,10 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>940.2</v>
+        <v>2996.8</v>
       </c>
       <c r="I58" t="n">
-        <v>1799.83</v>
+        <v>1799.79</v>
       </c>
     </row>
     <row r="59">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2504,10 +2504,10 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>780.6</v>
+        <v>2773.7</v>
       </c>
       <c r="I59" t="n">
-        <v>1799.85</v>
+        <v>1799.72</v>
       </c>
     </row>
     <row r="60">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>796.7</v>
+        <v>3266</v>
       </c>
       <c r="I60" t="n">
-        <v>1799.76</v>
+        <v>1799.8</v>
       </c>
     </row>
     <row r="61">
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>800.1</v>
+        <v>1437.4</v>
       </c>
       <c r="I61" t="n">
-        <v>1799.87</v>
+        <v>1799.75</v>
       </c>
     </row>
     <row r="62">
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2609,7 +2609,7 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>778.1</v>
+        <v>2797.6</v>
       </c>
       <c r="I62" t="n">
         <v>1799.88</v>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2644,10 +2644,10 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>772.3</v>
+        <v>1660.1</v>
       </c>
       <c r="I63" t="n">
-        <v>1799.87</v>
+        <v>1799.21</v>
       </c>
     </row>
     <row r="64">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2679,10 +2679,10 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>769.7</v>
+        <v>2715.2</v>
       </c>
       <c r="I64" t="n">
-        <v>1799.78</v>
+        <v>1799.84</v>
       </c>
     </row>
     <row r="65">
@@ -2706,18 +2706,18 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>622.1</v>
+        <v>1662</v>
       </c>
       <c r="I65" t="n">
-        <v>137.78</v>
+        <v>1799.75</v>
       </c>
     </row>
     <row r="66">
@@ -2741,18 +2741,18 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>491.1</v>
+        <v>2255.9</v>
       </c>
       <c r="I66" t="n">
-        <v>3.09</v>
+        <v>1799.85</v>
       </c>
     </row>
     <row r="67">
@@ -2776,18 +2776,18 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>395.5</v>
+        <v>1084.6</v>
       </c>
       <c r="I67" t="n">
-        <v>1.29</v>
+        <v>1799.86</v>
       </c>
     </row>
     <row r="68">
@@ -2811,18 +2811,18 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>371.2</v>
+        <v>1234.2</v>
       </c>
       <c r="I68" t="n">
-        <v>1.09</v>
+        <v>1799.87</v>
       </c>
     </row>
     <row r="69">
@@ -2846,18 +2846,18 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>372.4</v>
+        <v>1341</v>
       </c>
       <c r="I69" t="n">
-        <v>1.09</v>
+        <v>1799.77</v>
       </c>
     </row>
     <row r="70">
@@ -2881,18 +2881,18 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>372.7</v>
+        <v>978.9</v>
       </c>
       <c r="I70" t="n">
-        <v>1.09</v>
+        <v>1799.36</v>
       </c>
     </row>
     <row r="71">
@@ -2916,18 +2916,18 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>368.6</v>
+        <v>1001</v>
       </c>
       <c r="I71" t="n">
-        <v>1.09</v>
+        <v>1799.9</v>
       </c>
     </row>
     <row r="72">
@@ -2951,18 +2951,18 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>369.4</v>
+        <v>1435.7</v>
       </c>
       <c r="I72" t="n">
-        <v>0.99</v>
+        <v>1799.86</v>
       </c>
     </row>
     <row r="73">
@@ -2986,18 +2986,18 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>373.8</v>
+        <v>994.7</v>
       </c>
       <c r="I73" t="n">
-        <v>1.09</v>
+        <v>1799.76</v>
       </c>
     </row>
     <row r="74">
@@ -3021,18 +3021,18 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>370.7</v>
+        <v>951.3</v>
       </c>
       <c r="I74" t="n">
-        <v>1.09</v>
+        <v>1799.86</v>
       </c>
     </row>
     <row r="75">
@@ -3056,18 +3056,18 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>370.3</v>
+        <v>984.3</v>
       </c>
       <c r="I75" t="n">
-        <v>1.09</v>
+        <v>1799.84</v>
       </c>
     </row>
     <row r="76">
@@ -3091,18 +3091,18 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>369</v>
+        <v>1002.2</v>
       </c>
       <c r="I76" t="n">
-        <v>1.09</v>
+        <v>1799.88</v>
       </c>
     </row>
     <row r="77">
@@ -3126,18 +3126,18 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>369.8</v>
+        <v>942.1</v>
       </c>
       <c r="I77" t="n">
-        <v>1.09</v>
+        <v>1799.78</v>
       </c>
     </row>
     <row r="78">
@@ -3161,18 +3161,18 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>368.3</v>
+        <v>868.6</v>
       </c>
       <c r="I78" t="n">
-        <v>0.99</v>
+        <v>1799.87</v>
       </c>
     </row>
     <row r="79">
@@ -3196,18 +3196,18 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>370.1</v>
+        <v>940.2</v>
       </c>
       <c r="I79" t="n">
-        <v>1.09</v>
+        <v>1799.83</v>
       </c>
     </row>
     <row r="80">
@@ -3231,18 +3231,18 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>376.9</v>
+        <v>780.6</v>
       </c>
       <c r="I80" t="n">
-        <v>1.09</v>
+        <v>1799.85</v>
       </c>
     </row>
     <row r="81">
@@ -3266,18 +3266,18 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>370.2</v>
+        <v>796.7</v>
       </c>
       <c r="I81" t="n">
-        <v>1.09</v>
+        <v>1799.76</v>
       </c>
     </row>
     <row r="82">
@@ -3301,18 +3301,18 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>368.4</v>
+        <v>800.1</v>
       </c>
       <c r="I82" t="n">
-        <v>1.1</v>
+        <v>1799.87</v>
       </c>
     </row>
     <row r="83">
@@ -3336,18 +3336,18 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>369.3</v>
+        <v>778.1</v>
       </c>
       <c r="I83" t="n">
-        <v>0.99</v>
+        <v>1799.88</v>
       </c>
     </row>
     <row r="84">
@@ -3371,18 +3371,18 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>371.4</v>
+        <v>772.3</v>
       </c>
       <c r="I84" t="n">
-        <v>1.09</v>
+        <v>1799.87</v>
       </c>
     </row>
     <row r="85">
@@ -3406,18 +3406,18 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>368.1</v>
+        <v>769.7</v>
       </c>
       <c r="I85" t="n">
-        <v>1.09</v>
+        <v>1799.78</v>
       </c>
     </row>
     <row r="86">
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3449,10 +3449,10 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>367.8</v>
+        <v>622.1</v>
       </c>
       <c r="I86" t="n">
-        <v>1.09</v>
+        <v>137.78</v>
       </c>
     </row>
     <row r="87">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>374.5</v>
+        <v>491.1</v>
       </c>
       <c r="I87" t="n">
-        <v>1.09</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="88">
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3519,10 +3519,10 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>367.5</v>
+        <v>395.5</v>
       </c>
       <c r="I88" t="n">
-        <v>0.99</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="89">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3554,10 +3554,10 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>364.7</v>
+        <v>371.2</v>
       </c>
       <c r="I89" t="n">
-        <v>0.99</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="90">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>366.3</v>
+        <v>372.4</v>
       </c>
       <c r="I90" t="n">
         <v>1.09</v>
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3624,10 +3624,10 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>367.7</v>
+        <v>372.7</v>
       </c>
       <c r="I91" t="n">
-        <v>0.99</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="92">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>366.7</v>
+        <v>368.6</v>
       </c>
       <c r="I92" t="n">
         <v>1.09</v>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>366.3</v>
+        <v>369.4</v>
       </c>
       <c r="I93" t="n">
         <v>0.99</v>
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>365</v>
+        <v>373.8</v>
       </c>
       <c r="I94" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="95">
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>367.3</v>
+        <v>370.7</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="96">
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>367.2</v>
+        <v>370.3</v>
       </c>
       <c r="I96" t="n">
         <v>1.09</v>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>367.8</v>
+        <v>369</v>
       </c>
       <c r="I97" t="n">
         <v>1.09</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>365.5</v>
+        <v>369.8</v>
       </c>
       <c r="I98" t="n">
         <v>1.09</v>
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>363.7</v>
+        <v>368.3</v>
       </c>
       <c r="I99" t="n">
         <v>0.99</v>
@@ -3913,7 +3913,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3931,24 +3931,24 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>4713.1</v>
+        <v>370.1</v>
       </c>
       <c r="I100" t="n">
-        <v>1799.44</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3966,24 +3966,24 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>2482.9</v>
+        <v>376.9</v>
       </c>
       <c r="I101" t="n">
-        <v>1799.85</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -4001,24 +4001,24 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>3895</v>
+        <v>370.2</v>
       </c>
       <c r="I102" t="n">
-        <v>1595.07</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -4036,24 +4036,24 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>3625.4</v>
+        <v>368.4</v>
       </c>
       <c r="I103" t="n">
-        <v>1799.24</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -4071,24 +4071,24 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>3293.4</v>
+        <v>369.3</v>
       </c>
       <c r="I104" t="n">
-        <v>1799.73</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -4106,24 +4106,24 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>5146.3</v>
+        <v>371.4</v>
       </c>
       <c r="I105" t="n">
-        <v>1799.83</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -4141,24 +4141,24 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>3427.2</v>
+        <v>368.1</v>
       </c>
       <c r="I106" t="n">
-        <v>1799.83</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -4176,24 +4176,24 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>3836.5</v>
+        <v>367.8</v>
       </c>
       <c r="I107" t="n">
-        <v>1799.84</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -4211,24 +4211,24 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>3706.9</v>
+        <v>374.5</v>
       </c>
       <c r="I108" t="n">
-        <v>1799.74</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -4246,24 +4246,24 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>3722.3</v>
+        <v>367.5</v>
       </c>
       <c r="I109" t="n">
-        <v>1799.84</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -4281,24 +4281,24 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>4210.7</v>
+        <v>364.7</v>
       </c>
       <c r="I110" t="n">
-        <v>1799.81</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -4316,24 +4316,24 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>2647</v>
+        <v>366.3</v>
       </c>
       <c r="I111" t="n">
-        <v>1799.74</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -4351,24 +4351,24 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>3575.1</v>
+        <v>367.7</v>
       </c>
       <c r="I112" t="n">
-        <v>1799.84</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -4386,24 +4386,24 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>2271.6</v>
+        <v>366.7</v>
       </c>
       <c r="I113" t="n">
-        <v>1799.04</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4421,24 +4421,24 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>4675.5</v>
+        <v>366.3</v>
       </c>
       <c r="I114" t="n">
-        <v>1799.85</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4456,24 +4456,24 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>2502.4</v>
+        <v>365</v>
       </c>
       <c r="I115" t="n">
-        <v>1799.85</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -4491,24 +4491,24 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>3305.3</v>
+        <v>367.3</v>
       </c>
       <c r="I116" t="n">
-        <v>1799.56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -4526,24 +4526,24 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>3273.5</v>
+        <v>367.2</v>
       </c>
       <c r="I117" t="n">
-        <v>1799.75</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4561,24 +4561,24 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>3447.8</v>
+        <v>367.8</v>
       </c>
       <c r="I118" t="n">
-        <v>1799.82</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4596,24 +4596,24 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>4144.9</v>
+        <v>365.5</v>
       </c>
       <c r="I119" t="n">
-        <v>1799.64</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>P-can__445</t>
+          <t>O-impcol_d</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -4631,18 +4631,18 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>3778.5</v>
+        <v>363.7</v>
       </c>
       <c r="I120" t="n">
-        <v>1799.76</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="121">
@@ -4666,18 +4666,18 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>4074.2</v>
+        <v>4713.1</v>
       </c>
       <c r="I121" t="n">
-        <v>1799.84</v>
+        <v>1743.08</v>
       </c>
     </row>
     <row r="122">
@@ -4701,18 +4701,18 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>1172.3</v>
+        <v>2481.8</v>
       </c>
       <c r="I122" t="n">
-        <v>1799.74</v>
+        <v>1457.05</v>
       </c>
     </row>
     <row r="123">
@@ -4736,18 +4736,18 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>1090.5</v>
+        <v>3895</v>
       </c>
       <c r="I123" t="n">
-        <v>1799.84</v>
+        <v>1595.07</v>
       </c>
     </row>
     <row r="124">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4779,10 +4779,10 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>1051.7</v>
+        <v>3625.4</v>
       </c>
       <c r="I124" t="n">
-        <v>1799.85</v>
+        <v>1799.24</v>
       </c>
     </row>
     <row r="125">
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4814,10 +4814,10 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>1068.3</v>
+        <v>3293.4</v>
       </c>
       <c r="I125" t="n">
-        <v>1799.71</v>
+        <v>1799.73</v>
       </c>
     </row>
     <row r="126">
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>1048.5</v>
+        <v>5146.3</v>
       </c>
       <c r="I126" t="n">
-        <v>1799.79</v>
+        <v>1799.83</v>
       </c>
     </row>
     <row r="127">
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4884,7 +4884,7 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>983.2</v>
+        <v>3427.2</v>
       </c>
       <c r="I127" t="n">
         <v>1799.83</v>
@@ -4911,7 +4911,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4919,10 +4919,10 @@
         </is>
       </c>
       <c r="H128" t="n">
-        <v>976.8</v>
+        <v>3836.5</v>
       </c>
       <c r="I128" t="n">
-        <v>1799.85</v>
+        <v>1799.84</v>
       </c>
     </row>
     <row r="129">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>936.9</v>
+        <v>3706.9</v>
       </c>
       <c r="I129" t="n">
         <v>1799.74</v>
@@ -4981,7 +4981,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4989,10 +4989,10 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>946.6</v>
+        <v>3722.3</v>
       </c>
       <c r="I130" t="n">
-        <v>1799.83</v>
+        <v>1799.84</v>
       </c>
     </row>
     <row r="131">
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -5024,10 +5024,10 @@
         </is>
       </c>
       <c r="H131" t="n">
-        <v>916.7</v>
+        <v>4210.7</v>
       </c>
       <c r="I131" t="n">
-        <v>1799.83</v>
+        <v>1799.81</v>
       </c>
     </row>
     <row r="132">
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="H132" t="n">
-        <v>923.3</v>
+        <v>2647</v>
       </c>
       <c r="I132" t="n">
-        <v>1799.84</v>
+        <v>1799.74</v>
       </c>
     </row>
     <row r="133">
@@ -5086,18 +5086,18 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>809</v>
+        <v>3575.1</v>
       </c>
       <c r="I133" t="n">
-        <v>29.88</v>
+        <v>1799.84</v>
       </c>
     </row>
     <row r="134">
@@ -5121,18 +5121,18 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>525.1</v>
+        <v>2271.6</v>
       </c>
       <c r="I134" t="n">
-        <v>2.79</v>
+        <v>1799.04</v>
       </c>
     </row>
     <row r="135">
@@ -5156,18 +5156,18 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>517.9</v>
+        <v>4675.5</v>
       </c>
       <c r="I135" t="n">
-        <v>3.08</v>
+        <v>1799.85</v>
       </c>
     </row>
     <row r="136">
@@ -5191,18 +5191,18 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>516.9</v>
+        <v>2502.4</v>
       </c>
       <c r="I136" t="n">
-        <v>2.99</v>
+        <v>1799.85</v>
       </c>
     </row>
     <row r="137">
@@ -5226,18 +5226,18 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>519.1</v>
+        <v>3305.3</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>1799.56</v>
       </c>
     </row>
     <row r="138">
@@ -5261,18 +5261,18 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>518.6</v>
+        <v>3273.5</v>
       </c>
       <c r="I138" t="n">
-        <v>2.99</v>
+        <v>1799.75</v>
       </c>
     </row>
     <row r="139">
@@ -5296,18 +5296,18 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>514.4</v>
+        <v>3447.8</v>
       </c>
       <c r="I139" t="n">
-        <v>3.09</v>
+        <v>1799.82</v>
       </c>
     </row>
     <row r="140">
@@ -5331,18 +5331,18 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>527.7</v>
+        <v>4144.9</v>
       </c>
       <c r="I140" t="n">
-        <v>2.89</v>
+        <v>1799.64</v>
       </c>
     </row>
     <row r="141">
@@ -5366,18 +5366,18 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>513.4</v>
+        <v>3778.5</v>
       </c>
       <c r="I141" t="n">
-        <v>2.99</v>
+        <v>1799.76</v>
       </c>
     </row>
     <row r="142">
@@ -5401,24 +5401,24 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>517.3</v>
+        <v>4074.2</v>
       </c>
       <c r="I142" t="n">
-        <v>2.99</v>
+        <v>1799.84</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -5436,24 +5436,24 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>1300.9</v>
+        <v>1172.3</v>
       </c>
       <c r="I143" t="n">
-        <v>779.38</v>
+        <v>1799.74</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -5479,16 +5479,16 @@
         </is>
       </c>
       <c r="H144" t="n">
-        <v>2223.1</v>
+        <v>1090.5</v>
       </c>
       <c r="I144" t="n">
-        <v>1799.57</v>
+        <v>1799.84</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -5514,16 +5514,16 @@
         </is>
       </c>
       <c r="H145" t="n">
-        <v>1337.7</v>
+        <v>1051.7</v>
       </c>
       <c r="I145" t="n">
-        <v>1799.81</v>
+        <v>1799.85</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -5549,16 +5549,16 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>1195.9</v>
+        <v>1068.3</v>
       </c>
       <c r="I146" t="n">
-        <v>1799.87</v>
+        <v>1799.71</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5584,16 +5584,16 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>1414.2</v>
+        <v>1048.5</v>
       </c>
       <c r="I147" t="n">
-        <v>1799.85</v>
+        <v>1799.79</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -5611,7 +5611,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5619,16 +5619,16 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>1073.8</v>
+        <v>983.2</v>
       </c>
       <c r="I148" t="n">
-        <v>1799.76</v>
+        <v>1799.83</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>1286.7</v>
+        <v>976.8</v>
       </c>
       <c r="I149" t="n">
         <v>1799.85</v>
@@ -5663,7 +5663,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -5681,7 +5681,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5689,16 +5689,16 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>1436</v>
+        <v>936.9</v>
       </c>
       <c r="I150" t="n">
-        <v>1799.84</v>
+        <v>1799.74</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>1378.7</v>
+        <v>946.6</v>
       </c>
       <c r="I151" t="n">
-        <v>1799.87</v>
+        <v>1799.83</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -5751,7 +5751,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5759,16 +5759,16 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>1219.6</v>
+        <v>916.7</v>
       </c>
       <c r="I152" t="n">
-        <v>1799.75</v>
+        <v>1799.83</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5794,16 +5794,16 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>1290.4</v>
+        <v>923.3</v>
       </c>
       <c r="I153" t="n">
-        <v>1799.88</v>
+        <v>1799.84</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -5821,24 +5821,24 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>230</v>
+        <v>111</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>1074.3</v>
+        <v>809</v>
       </c>
       <c r="I154" t="n">
-        <v>1799.64</v>
+        <v>29.88</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -5856,24 +5856,24 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>1091.6</v>
+        <v>525.1</v>
       </c>
       <c r="I155" t="n">
-        <v>1799.86</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -5891,24 +5891,24 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>1076.4</v>
+        <v>517.9</v>
       </c>
       <c r="I156" t="n">
-        <v>1799.86</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -5926,24 +5926,24 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>942.2</v>
+        <v>516.9</v>
       </c>
       <c r="I157" t="n">
-        <v>1799.74</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -5961,24 +5961,24 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>957.6</v>
+        <v>519.1</v>
       </c>
       <c r="I158" t="n">
-        <v>1799.85</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -5996,24 +5996,24 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>1035.8</v>
+        <v>518.6</v>
       </c>
       <c r="I159" t="n">
-        <v>1799.86</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -6031,24 +6031,24 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>893.6</v>
+        <v>514.4</v>
       </c>
       <c r="I160" t="n">
-        <v>1799.79</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -6066,24 +6066,24 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>904.6</v>
+        <v>527.7</v>
       </c>
       <c r="I161" t="n">
-        <v>1799.76</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -6101,24 +6101,24 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>920.4</v>
+        <v>513.4</v>
       </c>
       <c r="I162" t="n">
-        <v>1799.85</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Q-494_bus</t>
+          <t>P-can__445</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -6136,18 +6136,18 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>851.7</v>
+        <v>517.3</v>
       </c>
       <c r="I163" t="n">
-        <v>1799.85</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="164">
@@ -6171,18 +6171,18 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>849.5</v>
+        <v>1300.9</v>
       </c>
       <c r="I164" t="n">
-        <v>1799.84</v>
+        <v>779.38</v>
       </c>
     </row>
     <row r="165">
@@ -6206,7 +6206,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -6214,10 +6214,10 @@
         </is>
       </c>
       <c r="H165" t="n">
-        <v>781.9</v>
+        <v>2223.1</v>
       </c>
       <c r="I165" t="n">
-        <v>1799.73</v>
+        <v>1799.57</v>
       </c>
     </row>
     <row r="166">
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -6249,10 +6249,10 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>795.4</v>
+        <v>1337.7</v>
       </c>
       <c r="I166" t="n">
-        <v>1799.87</v>
+        <v>1799.81</v>
       </c>
     </row>
     <row r="167">
@@ -6276,18 +6276,18 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>732.5</v>
+        <v>1195.9</v>
       </c>
       <c r="I167" t="n">
-        <v>546.61</v>
+        <v>1799.87</v>
       </c>
     </row>
     <row r="168">
@@ -6311,18 +6311,18 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>677.1</v>
+        <v>1414.2</v>
       </c>
       <c r="I168" t="n">
-        <v>29.39</v>
+        <v>1799.85</v>
       </c>
     </row>
     <row r="169">
@@ -6346,18 +6346,18 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>471.2</v>
+        <v>1073.8</v>
       </c>
       <c r="I169" t="n">
-        <v>1.89</v>
+        <v>1799.76</v>
       </c>
     </row>
     <row r="170">
@@ -6381,24 +6381,24 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>449.6</v>
+        <v>1286.7</v>
       </c>
       <c r="I170" t="n">
-        <v>1.19</v>
+        <v>1799.85</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>R-dwt__503</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -6416,24 +6416,24 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>1403.2</v>
+        <v>1436</v>
       </c>
       <c r="I171" t="n">
-        <v>851.55</v>
+        <v>1799.84</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>R-dwt__503</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -6451,24 +6451,24 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>1623.5</v>
+        <v>1378.7</v>
       </c>
       <c r="I172" t="n">
-        <v>1485.33</v>
+        <v>1799.87</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>R-dwt__503</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -6486,7 +6486,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -6494,16 +6494,16 @@
         </is>
       </c>
       <c r="H173" t="n">
-        <v>1498.3</v>
+        <v>1219.6</v>
       </c>
       <c r="I173" t="n">
-        <v>1799.12</v>
+        <v>1799.75</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>R-dwt__503</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -6529,16 +6529,16 @@
         </is>
       </c>
       <c r="H174" t="n">
-        <v>1522.6</v>
+        <v>1290.4</v>
       </c>
       <c r="I174" t="n">
-        <v>1799.77</v>
+        <v>1799.88</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>R-dwt__503</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -6556,7 +6556,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -6564,16 +6564,16 @@
         </is>
       </c>
       <c r="H175" t="n">
-        <v>1513</v>
+        <v>1074.3</v>
       </c>
       <c r="I175" t="n">
-        <v>1799.71</v>
+        <v>1799.64</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>R-dwt__503</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -6591,7 +6591,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>68</v>
+        <v>231</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -6599,16 +6599,16 @@
         </is>
       </c>
       <c r="H176" t="n">
-        <v>1448.6</v>
+        <v>1091.6</v>
       </c>
       <c r="I176" t="n">
-        <v>1799.8</v>
+        <v>1799.86</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>R-dwt__503</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -6634,16 +6634,16 @@
         </is>
       </c>
       <c r="H177" t="n">
-        <v>1440.9</v>
+        <v>1076.4</v>
       </c>
       <c r="I177" t="n">
-        <v>1799.77</v>
+        <v>1799.86</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>R-dwt__503</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -6661,7 +6661,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -6669,16 +6669,16 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>1398.2</v>
+        <v>942.2</v>
       </c>
       <c r="I178" t="n">
-        <v>1799.78</v>
+        <v>1799.74</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>R-dwt__503</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -6704,16 +6704,16 @@
         </is>
       </c>
       <c r="H179" t="n">
-        <v>1357.6</v>
+        <v>957.6</v>
       </c>
       <c r="I179" t="n">
-        <v>1799.73</v>
+        <v>1799.85</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>R-dwt__503</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -6731,24 +6731,24 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>801.1</v>
+        <v>1035.8</v>
       </c>
       <c r="I180" t="n">
-        <v>3.8</v>
+        <v>1799.86</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -6766,24 +6766,24 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>1918</v>
+        <v>893.6</v>
       </c>
       <c r="I181" t="n">
-        <v>806.17</v>
+        <v>1799.79</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -6801,7 +6801,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -6809,16 +6809,16 @@
         </is>
       </c>
       <c r="H182" t="n">
-        <v>2912.7</v>
+        <v>904.6</v>
       </c>
       <c r="I182" t="n">
-        <v>1799.01</v>
+        <v>1799.76</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>105</v>
+        <v>238</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="H183" t="n">
-        <v>4796.3</v>
+        <v>920.4</v>
       </c>
       <c r="I183" t="n">
-        <v>1799.66</v>
+        <v>1799.85</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>106</v>
+        <v>239</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -6879,16 +6879,16 @@
         </is>
       </c>
       <c r="H184" t="n">
-        <v>4924.6</v>
+        <v>851.7</v>
       </c>
       <c r="I184" t="n">
-        <v>1799.76</v>
+        <v>1799.85</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -6906,7 +6906,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -6914,16 +6914,16 @@
         </is>
       </c>
       <c r="H185" t="n">
-        <v>3449</v>
+        <v>849.5</v>
       </c>
       <c r="I185" t="n">
-        <v>1799.69</v>
+        <v>1799.84</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -6941,7 +6941,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -6949,16 +6949,16 @@
         </is>
       </c>
       <c r="H186" t="n">
-        <v>3777.7</v>
+        <v>781.9</v>
       </c>
       <c r="I186" t="n">
-        <v>1799.83</v>
+        <v>1799.73</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -6984,16 +6984,16 @@
         </is>
       </c>
       <c r="H187" t="n">
-        <v>5063.8</v>
+        <v>795.4</v>
       </c>
       <c r="I187" t="n">
-        <v>1799.82</v>
+        <v>1799.87</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -7011,24 +7011,24 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>4692.8</v>
+        <v>732.5</v>
       </c>
       <c r="I188" t="n">
-        <v>1799.71</v>
+        <v>546.61</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -7046,24 +7046,24 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>2435.2</v>
+        <v>677.1</v>
       </c>
       <c r="I189" t="n">
-        <v>1798.87</v>
+        <v>29.39</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -7081,24 +7081,24 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>112</v>
+        <v>245</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>3604.1</v>
+        <v>471.2</v>
       </c>
       <c r="I190" t="n">
-        <v>1799.83</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>Q-494_bus</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -7116,24 +7116,24 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>4086.9</v>
+        <v>449.6</v>
       </c>
       <c r="I191" t="n">
-        <v>1799.83</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -7151,24 +7151,24 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>3962.4</v>
+        <v>1048.1</v>
       </c>
       <c r="I192" t="n">
-        <v>1799.82</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -7186,24 +7186,24 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>4974.2</v>
+        <v>1046.3</v>
       </c>
       <c r="I193" t="n">
-        <v>1799.69</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -7221,24 +7221,24 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>2843.8</v>
+        <v>1051.2</v>
       </c>
       <c r="I194" t="n">
-        <v>1799.74</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -7256,24 +7256,24 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>3570.4</v>
+        <v>1047.7</v>
       </c>
       <c r="I195" t="n">
-        <v>1799.83</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -7291,24 +7291,24 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H196" t="n">
-        <v>4117.6</v>
+        <v>1221.8</v>
       </c>
       <c r="I196" t="n">
-        <v>1799.82</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -7326,24 +7326,24 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>3083.2</v>
+        <v>1236.3</v>
       </c>
       <c r="I197" t="n">
-        <v>1799.68</v>
+        <v>26.29</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -7361,24 +7361,24 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>2840.4</v>
+        <v>1211.1</v>
       </c>
       <c r="I198" t="n">
-        <v>1799.77</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -7396,24 +7396,24 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>3135.6</v>
+        <v>1247.3</v>
       </c>
       <c r="I199" t="n">
-        <v>1799.83</v>
+        <v>27.79</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -7431,24 +7431,24 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>3341.5</v>
+        <v>1039.7</v>
       </c>
       <c r="I200" t="n">
-        <v>1799.84</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -7466,24 +7466,24 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>3328.2</v>
+        <v>1217</v>
       </c>
       <c r="I201" t="n">
-        <v>1799.74</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -7501,24 +7501,24 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>3316.7</v>
+        <v>1342.7</v>
       </c>
       <c r="I202" t="n">
-        <v>1799.83</v>
+        <v>103.36</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -7536,24 +7536,24 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H203" t="n">
-        <v>4209.6</v>
+        <v>1252.5</v>
       </c>
       <c r="I203" t="n">
-        <v>1799.82</v>
+        <v>98.56</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -7571,24 +7571,24 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H204" t="n">
-        <v>4782.2</v>
+        <v>1253.9</v>
       </c>
       <c r="I204" t="n">
-        <v>1799.74</v>
+        <v>139.14</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -7606,24 +7606,24 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>5361.8</v>
+        <v>1329.2</v>
       </c>
       <c r="I205" t="n">
-        <v>1799.69</v>
+        <v>254.91</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -7641,24 +7641,24 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H206" t="n">
-        <v>4680.8</v>
+        <v>1264.4</v>
       </c>
       <c r="I206" t="n">
-        <v>1799.84</v>
+        <v>389.18</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -7676,24 +7676,24 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H207" t="n">
-        <v>4577</v>
+        <v>1328.3</v>
       </c>
       <c r="I207" t="n">
-        <v>1799.7</v>
+        <v>308.4</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -7711,24 +7711,24 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H208" t="n">
-        <v>4243.4</v>
+        <v>1431</v>
       </c>
       <c r="I208" t="n">
-        <v>1799.74</v>
+        <v>669.17</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -7746,24 +7746,24 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H209" t="n">
-        <v>6453</v>
+        <v>1403.2</v>
       </c>
       <c r="I209" t="n">
-        <v>1799.79</v>
+        <v>851.55</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -7781,24 +7781,24 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H210" t="n">
-        <v>10072.5</v>
+        <v>1623.5</v>
       </c>
       <c r="I210" t="n">
-        <v>1799.91</v>
+        <v>1485.33</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -7816,7 +7816,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -7824,16 +7824,16 @@
         </is>
       </c>
       <c r="H211" t="n">
-        <v>3427.6</v>
+        <v>1498.3</v>
       </c>
       <c r="I211" t="n">
-        <v>1799.61</v>
+        <v>1799.12</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -7851,7 +7851,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -7859,16 +7859,16 @@
         </is>
       </c>
       <c r="H212" t="n">
-        <v>1744.4</v>
+        <v>1522.6</v>
       </c>
       <c r="I212" t="n">
-        <v>1799.73</v>
+        <v>1799.77</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -7894,16 +7894,16 @@
         </is>
       </c>
       <c r="H213" t="n">
-        <v>12790.9</v>
+        <v>1513</v>
       </c>
       <c r="I213" t="n">
-        <v>1799.99</v>
+        <v>1799.71</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -7929,16 +7929,16 @@
         </is>
       </c>
       <c r="H214" t="n">
-        <v>1644.1</v>
+        <v>1448.6</v>
       </c>
       <c r="I214" t="n">
-        <v>1799.5</v>
+        <v>1799.8</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -7956,7 +7956,7 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="H215" t="n">
-        <v>1634.5</v>
+        <v>1440.9</v>
       </c>
       <c r="I215" t="n">
-        <v>1799.81</v>
+        <v>1799.77</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -7991,7 +7991,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -7999,16 +7999,16 @@
         </is>
       </c>
       <c r="H216" t="n">
-        <v>1665</v>
+        <v>1398.2</v>
       </c>
       <c r="I216" t="n">
-        <v>1799.83</v>
+        <v>1799.78</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -8026,7 +8026,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -8034,16 +8034,16 @@
         </is>
       </c>
       <c r="H217" t="n">
-        <v>1595.2</v>
+        <v>1357.6</v>
       </c>
       <c r="I217" t="n">
-        <v>1799.7</v>
+        <v>1799.73</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>T-dwt__592</t>
+          <t>R-dwt__503</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -8061,18 +8061,18 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UNSAT</t>
         </is>
       </c>
       <c r="H218" t="n">
-        <v>1623.2</v>
+        <v>801.1</v>
       </c>
       <c r="I218" t="n">
-        <v>1799.82</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="219">
@@ -8096,18 +8096,18 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="H219" t="n">
-        <v>1576.1</v>
+        <v>1918</v>
       </c>
       <c r="I219" t="n">
-        <v>1799.78</v>
+        <v>806.17</v>
       </c>
     </row>
     <row r="220">
@@ -8131,7 +8131,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -8139,10 +8139,10 @@
         </is>
       </c>
       <c r="H220" t="n">
-        <v>1597.2</v>
+        <v>2912.7</v>
       </c>
       <c r="I220" t="n">
-        <v>1799.72</v>
+        <v>1799.01</v>
       </c>
     </row>
     <row r="221">
@@ -8166,7 +8166,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -8174,10 +8174,10 @@
         </is>
       </c>
       <c r="H221" t="n">
-        <v>1546</v>
+        <v>4796.3</v>
       </c>
       <c r="I221" t="n">
-        <v>1799.79</v>
+        <v>1799.66</v>
       </c>
     </row>
     <row r="222">
@@ -8201,7 +8201,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -8209,10 +8209,10 @@
         </is>
       </c>
       <c r="H222" t="n">
-        <v>1532.5</v>
+        <v>4924.6</v>
       </c>
       <c r="I222" t="n">
-        <v>1799.71</v>
+        <v>1799.76</v>
       </c>
     </row>
     <row r="223">
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -8244,10 +8244,10 @@
         </is>
       </c>
       <c r="H223" t="n">
-        <v>1551.1</v>
+        <v>3449</v>
       </c>
       <c r="I223" t="n">
-        <v>1799.7</v>
+        <v>1799.69</v>
       </c>
     </row>
     <row r="224">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -8279,10 +8279,10 @@
         </is>
       </c>
       <c r="H224" t="n">
-        <v>1577.6</v>
+        <v>3777.7</v>
       </c>
       <c r="I224" t="n">
-        <v>1799.7</v>
+        <v>1799.83</v>
       </c>
     </row>
     <row r="225">
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -8314,10 +8314,10 @@
         </is>
       </c>
       <c r="H225" t="n">
-        <v>1759.1</v>
+        <v>5063.8</v>
       </c>
       <c r="I225" t="n">
-        <v>1799.7</v>
+        <v>1799.82</v>
       </c>
     </row>
     <row r="226">
@@ -8341,18 +8341,18 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H226" t="n">
-        <v>1022.3</v>
+        <v>4692.8</v>
       </c>
       <c r="I226" t="n">
-        <v>50.78</v>
+        <v>1799.71</v>
       </c>
     </row>
     <row r="227">
@@ -8376,18 +8376,18 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H227" t="n">
-        <v>804</v>
+        <v>2435.2</v>
       </c>
       <c r="I227" t="n">
-        <v>5.69</v>
+        <v>1798.87</v>
       </c>
     </row>
     <row r="228">
@@ -8411,24 +8411,24 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>UNSAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H228" t="n">
-        <v>803.8</v>
+        <v>3604.1</v>
       </c>
       <c r="I228" t="n">
-        <v>4.69</v>
+        <v>1799.83</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -8446,24 +8446,24 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H229" t="n">
-        <v>4624.4</v>
+        <v>4086.9</v>
       </c>
       <c r="I229" t="n">
-        <v>1517.86</v>
+        <v>1799.83</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -8481,7 +8481,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -8489,16 +8489,16 @@
         </is>
       </c>
       <c r="H230" t="n">
-        <v>3982.5</v>
+        <v>3962.4</v>
       </c>
       <c r="I230" t="n">
-        <v>1799.29</v>
+        <v>1799.82</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -8516,7 +8516,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -8524,16 +8524,16 @@
         </is>
       </c>
       <c r="H231" t="n">
-        <v>8554.9</v>
+        <v>4974.2</v>
       </c>
       <c r="I231" t="n">
-        <v>1799.77</v>
+        <v>1799.69</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -8551,24 +8551,24 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>2833.3</v>
+        <v>2843.8</v>
       </c>
       <c r="I232" t="n">
-        <v>965.9299999999999</v>
+        <v>1799.74</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -8586,7 +8586,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -8594,16 +8594,16 @@
         </is>
       </c>
       <c r="H233" t="n">
-        <v>4837.4</v>
+        <v>3570.4</v>
       </c>
       <c r="I233" t="n">
-        <v>1799.55</v>
+        <v>1799.83</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -8629,16 +8629,16 @@
         </is>
       </c>
       <c r="H234" t="n">
-        <v>3955</v>
+        <v>4117.6</v>
       </c>
       <c r="I234" t="n">
-        <v>1799.72</v>
+        <v>1799.82</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -8656,7 +8656,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -8664,16 +8664,16 @@
         </is>
       </c>
       <c r="H235" t="n">
-        <v>5007</v>
+        <v>3083.2</v>
       </c>
       <c r="I235" t="n">
-        <v>1799.9</v>
+        <v>1799.68</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -8691,7 +8691,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -8699,16 +8699,16 @@
         </is>
       </c>
       <c r="H236" t="n">
-        <v>7525.6</v>
+        <v>2840.4</v>
       </c>
       <c r="I236" t="n">
-        <v>1799.92</v>
+        <v>1799.77</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -8726,7 +8726,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -8734,16 +8734,16 @@
         </is>
       </c>
       <c r="H237" t="n">
-        <v>5600.4</v>
+        <v>3135.6</v>
       </c>
       <c r="I237" t="n">
-        <v>1799.61</v>
+        <v>1799.83</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -8761,7 +8761,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -8769,16 +8769,16 @@
         </is>
       </c>
       <c r="H238" t="n">
-        <v>5011.4</v>
+        <v>3341.5</v>
       </c>
       <c r="I238" t="n">
-        <v>1799.04</v>
+        <v>1799.84</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -8804,16 +8804,16 @@
         </is>
       </c>
       <c r="H239" t="n">
-        <v>3406.1</v>
+        <v>3328.2</v>
       </c>
       <c r="I239" t="n">
-        <v>1799.73</v>
+        <v>1799.74</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -8831,7 +8831,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -8839,16 +8839,16 @@
         </is>
       </c>
       <c r="H240" t="n">
-        <v>3327.9</v>
+        <v>3316.7</v>
       </c>
       <c r="I240" t="n">
-        <v>1799.78</v>
+        <v>1799.83</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -8874,16 +8874,16 @@
         </is>
       </c>
       <c r="H241" t="n">
-        <v>4121.6</v>
+        <v>4209.6</v>
       </c>
       <c r="I241" t="n">
-        <v>1799.74</v>
+        <v>1799.82</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -8909,16 +8909,16 @@
         </is>
       </c>
       <c r="H242" t="n">
-        <v>2727.5</v>
+        <v>4782.2</v>
       </c>
       <c r="I242" t="n">
-        <v>1799.67</v>
+        <v>1799.74</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -8936,7 +8936,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -8944,16 +8944,16 @@
         </is>
       </c>
       <c r="H243" t="n">
-        <v>4180.2</v>
+        <v>5361.8</v>
       </c>
       <c r="I243" t="n">
-        <v>1799.77</v>
+        <v>1799.69</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -8979,16 +8979,16 @@
         </is>
       </c>
       <c r="H244" t="n">
-        <v>3041.3</v>
+        <v>4680.8</v>
       </c>
       <c r="I244" t="n">
-        <v>1799.71</v>
+        <v>1799.84</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -9006,7 +9006,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -9014,16 +9014,16 @@
         </is>
       </c>
       <c r="H245" t="n">
-        <v>4985.4</v>
+        <v>4577</v>
       </c>
       <c r="I245" t="n">
-        <v>1799.82</v>
+        <v>1799.7</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -9041,7 +9041,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -9049,16 +9049,16 @@
         </is>
       </c>
       <c r="H246" t="n">
-        <v>2992.5</v>
+        <v>4243.4</v>
       </c>
       <c r="I246" t="n">
-        <v>1799.72</v>
+        <v>1799.74</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -9076,7 +9076,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="H247" t="n">
-        <v>2650.7</v>
+        <v>6453</v>
       </c>
       <c r="I247" t="n">
-        <v>1799.8</v>
+        <v>1799.79</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -9119,16 +9119,16 @@
         </is>
       </c>
       <c r="H248" t="n">
-        <v>4822.8</v>
+        <v>10072.5</v>
       </c>
       <c r="I248" t="n">
-        <v>1799.08</v>
+        <v>1799.91</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -9154,16 +9154,16 @@
         </is>
       </c>
       <c r="H249" t="n">
-        <v>2561.7</v>
+        <v>3427.6</v>
       </c>
       <c r="I249" t="n">
-        <v>1799.72</v>
+        <v>1799.61</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -9181,7 +9181,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -9189,16 +9189,16 @@
         </is>
       </c>
       <c r="H250" t="n">
-        <v>2456.1</v>
+        <v>1744.4</v>
       </c>
       <c r="I250" t="n">
-        <v>1799.81</v>
+        <v>1799.73</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -9216,7 +9216,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -9224,16 +9224,16 @@
         </is>
       </c>
       <c r="H251" t="n">
-        <v>2626.4</v>
+        <v>12790.9</v>
       </c>
       <c r="I251" t="n">
-        <v>1799.67</v>
+        <v>1799.99</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -9251,7 +9251,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -9259,16 +9259,16 @@
         </is>
       </c>
       <c r="H252" t="n">
-        <v>2525.8</v>
+        <v>1644.1</v>
       </c>
       <c r="I252" t="n">
-        <v>1799.64</v>
+        <v>1799.5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -9286,7 +9286,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -9294,16 +9294,16 @@
         </is>
       </c>
       <c r="H253" t="n">
-        <v>4940.3</v>
+        <v>1634.5</v>
       </c>
       <c r="I253" t="n">
-        <v>1799.75</v>
+        <v>1799.81</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -9329,16 +9329,16 @@
         </is>
       </c>
       <c r="H254" t="n">
-        <v>2433.3</v>
+        <v>1665</v>
       </c>
       <c r="I254" t="n">
-        <v>1799.67</v>
+        <v>1799.83</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -9356,7 +9356,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         </is>
       </c>
       <c r="H255" t="n">
-        <v>2539.6</v>
+        <v>1595.2</v>
       </c>
       <c r="I255" t="n">
         <v>1799.7</v>
@@ -9373,7 +9373,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -9391,7 +9391,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
@@ -9399,16 +9399,16 @@
         </is>
       </c>
       <c r="H256" t="n">
-        <v>2377.9</v>
+        <v>1623.2</v>
       </c>
       <c r="I256" t="n">
-        <v>1799.87</v>
+        <v>1799.82</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
@@ -9434,16 +9434,16 @@
         </is>
       </c>
       <c r="H257" t="n">
-        <v>2442.2</v>
+        <v>1576.1</v>
       </c>
       <c r="I257" t="n">
-        <v>1799.75</v>
+        <v>1799.78</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>X-can__715</t>
+          <t>T-dwt__592</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -9461,7 +9461,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
@@ -9469,44 +9469,1374 @@
         </is>
       </c>
       <c r="H258" t="n">
-        <v>2370</v>
+        <v>1597.2</v>
       </c>
       <c r="I258" t="n">
-        <v>1799.64</v>
+        <v>1799.72</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
+          <t>T-dwt__592</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D259" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>143</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H259" t="n">
+        <v>1546</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1799.79</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>T-dwt__592</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D260" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>144</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H260" t="n">
+        <v>1532.5</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1799.71</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>T-dwt__592</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D261" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>145</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H261" t="n">
+        <v>1551.1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1799.7</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>T-dwt__592</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D262" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>146</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H262" t="n">
+        <v>1577.6</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1799.7</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>T-dwt__592</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D263" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>147</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H263" t="n">
+        <v>1759.1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1799.7</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>T-dwt__592</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D264" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>148</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="H264" t="n">
+        <v>1022.3</v>
+      </c>
+      <c r="I264" t="n">
+        <v>50.78</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>T-dwt__592</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D265" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>149</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="H265" t="n">
+        <v>804</v>
+      </c>
+      <c r="I265" t="n">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>T-dwt__592</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D266" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>150</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>UNSAT</t>
+        </is>
+      </c>
+      <c r="H266" t="n">
+        <v>803.8</v>
+      </c>
+      <c r="I266" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
           <t>X-can__715</t>
         </is>
       </c>
-      <c r="B259" t="n">
-        <v>1800</v>
-      </c>
-      <c r="C259" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D259" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="F259" t="n">
+      <c r="B267" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D267" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>112</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="H267" t="n">
+        <v>4624.4</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1517.86</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D268" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>113</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H268" t="n">
+        <v>3982.5</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1799.29</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D269" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>114</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H269" t="n">
+        <v>8554.9</v>
+      </c>
+      <c r="I269" t="n">
+        <v>1799.77</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D270" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>115</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="H270" t="n">
+        <v>2833.3</v>
+      </c>
+      <c r="I270" t="n">
+        <v>965.9299999999999</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D271" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>116</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H271" t="n">
+        <v>4837.4</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1799.55</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D272" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>117</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H272" t="n">
+        <v>3955</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1799.72</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D273" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>118</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H273" t="n">
+        <v>5007</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1799.9</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D274" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>119</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H274" t="n">
+        <v>7525.6</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1799.92</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D275" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>120</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H275" t="n">
+        <v>5600.4</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1799.61</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D276" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>121</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H276" t="n">
+        <v>5011.4</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1799.04</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D277" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>122</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H277" t="n">
+        <v>3406.1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1799.73</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D278" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>123</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H278" t="n">
+        <v>3327.9</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1799.78</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D279" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>124</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H279" t="n">
+        <v>4121.6</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1799.74</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D280" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>125</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H280" t="n">
+        <v>2727.5</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1799.67</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D281" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>126</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H281" t="n">
+        <v>4180.2</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1799.77</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D282" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>127</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H282" t="n">
+        <v>3041.3</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1799.71</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D283" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>128</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H283" t="n">
+        <v>4985.4</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1799.82</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D284" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>129</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H284" t="n">
+        <v>2992.5</v>
+      </c>
+      <c r="I284" t="n">
+        <v>1799.72</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D285" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>130</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H285" t="n">
+        <v>2650.7</v>
+      </c>
+      <c r="I285" t="n">
+        <v>1799.8</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D286" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>131</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H286" t="n">
+        <v>4822.8</v>
+      </c>
+      <c r="I286" t="n">
+        <v>1799.08</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D287" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>132</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H287" t="n">
+        <v>2561.7</v>
+      </c>
+      <c r="I287" t="n">
+        <v>1799.72</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D288" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>133</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H288" t="n">
+        <v>2456.1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>1799.81</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D289" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>134</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H289" t="n">
+        <v>2626.4</v>
+      </c>
+      <c r="I289" t="n">
+        <v>1799.67</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D290" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>135</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H290" t="n">
+        <v>2525.8</v>
+      </c>
+      <c r="I290" t="n">
+        <v>1799.64</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D291" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>136</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H291" t="n">
+        <v>4940.3</v>
+      </c>
+      <c r="I291" t="n">
+        <v>1799.75</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D292" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>137</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H292" t="n">
+        <v>2433.3</v>
+      </c>
+      <c r="I292" t="n">
+        <v>1799.67</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D293" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>138</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H293" t="n">
+        <v>2539.6</v>
+      </c>
+      <c r="I293" t="n">
+        <v>1799.7</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D294" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>139</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H294" t="n">
+        <v>2377.9</v>
+      </c>
+      <c r="I294" t="n">
+        <v>1799.87</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D295" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>140</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H295" t="n">
+        <v>2442.2</v>
+      </c>
+      <c r="I295" t="n">
+        <v>1799.75</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D296" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>141</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H296" t="n">
+        <v>2370</v>
+      </c>
+      <c r="I296" t="n">
+        <v>1799.64</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>X-can__715</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D297" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
         <v>142</v>
       </c>
-      <c r="G259" t="inlineStr">
+      <c r="G297" t="inlineStr">
         <is>
           <t>UNSAT</t>
         </is>
       </c>
-      <c r="H259" t="n">
+      <c r="H297" t="n">
         <v>2352</v>
       </c>
-      <c r="I259" t="n">
+      <c r="I297" t="n">
         <v>1699.07</v>
       </c>
     </row>
